--- a/Documentation/接口交互文档版本记录/登录交互.xlsx
+++ b/Documentation/接口交互文档版本记录/登录交互.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,26 @@
   </si>
   <si>
     <t>loginStatus 安全模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型,值为OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +256,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,9 +266,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,7 +568,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -610,30 +633,30 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -656,11 +679,21 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
